--- a/data/map.xlsx
+++ b/data/map.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kata6\Game\X68000\Develop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB759765-EFEE-4D79-9945-55561FBDC970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D6FA0C-2453-45B7-8D18-DE5427206E17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22395" yWindow="945" windowWidth="12225" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19980" yWindow="960" windowWidth="20055" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="map" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -227,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +258,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -271,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -279,6 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1052,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BM55" sqref="BM1:BM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
@@ -2710,101 +2717,101 @@
       <c r="AF9" s="1">
         <v>0</v>
       </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>0</v>
+      <c r="AG9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AS9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AT9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AU9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AV9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AX9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AY9" s="5">
+        <v>236</v>
+      </c>
+      <c r="AZ9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BA9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BB9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BC9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BD9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BE9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BF9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BG9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BH9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BI9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BJ9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BK9" s="5">
+        <v>236</v>
+      </c>
+      <c r="BL9" s="5">
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:64" ht="16.5" customHeight="1">
@@ -2904,101 +2911,101 @@
       <c r="AF10" s="1">
         <v>0</v>
       </c>
-      <c r="AG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="1">
-        <v>0</v>
+      <c r="AG10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AO10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AS10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AT10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AU10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AV10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AW10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AX10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AY10" s="5">
+        <v>237</v>
+      </c>
+      <c r="AZ10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BA10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BB10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BC10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BD10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BE10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BF10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BG10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BH10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BI10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BJ10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BK10" s="5">
+        <v>237</v>
+      </c>
+      <c r="BL10" s="5">
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:64" ht="15.75" customHeight="1">
@@ -3098,101 +3105,101 @@
       <c r="AF11" s="1">
         <v>0</v>
       </c>
-      <c r="AG11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="1">
-        <v>0</v>
+      <c r="AG11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AO11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AP11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AQ11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AS11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AT11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AU11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AV11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AW11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AX11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AY11" s="5">
+        <v>238</v>
+      </c>
+      <c r="AZ11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BA11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BB11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BC11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BD11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BE11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BF11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BG11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BH11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BI11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BJ11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BK11" s="5">
+        <v>238</v>
+      </c>
+      <c r="BL11" s="5">
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="15.75" customHeight="1">
@@ -3292,101 +3299,101 @@
       <c r="AF12" s="1">
         <v>0</v>
       </c>
-      <c r="AG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="1">
-        <v>0</v>
+      <c r="AG12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AO12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AQ12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AR12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AS12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AT12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AU12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AV12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AW12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AX12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AY12" s="5">
+        <v>239</v>
+      </c>
+      <c r="AZ12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BA12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BB12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BC12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BD12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BE12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BF12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BG12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BH12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BI12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BJ12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BK12" s="5">
+        <v>239</v>
+      </c>
+      <c r="BL12" s="5">
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:64" ht="15.75" customHeight="1">
@@ -3486,101 +3493,101 @@
       <c r="AF13" s="1">
         <v>0</v>
       </c>
-      <c r="AG13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="1">
-        <v>0</v>
+      <c r="AG13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AO13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AP13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AQ13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AR13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AS13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AT13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AU13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AV13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AW13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AX13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AY13" s="5">
+        <v>236</v>
+      </c>
+      <c r="AZ13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BA13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BB13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BC13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BD13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BE13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BF13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BG13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BH13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BI13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BJ13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BK13" s="5">
+        <v>236</v>
+      </c>
+      <c r="BL13" s="5">
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:64" ht="15.75" customHeight="1">
@@ -3680,101 +3687,101 @@
       <c r="AF14" s="1">
         <v>0</v>
       </c>
-      <c r="AG14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL14" s="1">
-        <v>0</v>
+      <c r="AG14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AO14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AP14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AS14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AU14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AV14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AW14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AX14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AY14" s="5">
+        <v>237</v>
+      </c>
+      <c r="AZ14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BA14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BB14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BC14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BD14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BE14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BF14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BG14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BH14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BI14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BJ14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BK14" s="5">
+        <v>237</v>
+      </c>
+      <c r="BL14" s="5">
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:64" ht="15.75" customHeight="1">
@@ -3874,101 +3881,101 @@
       <c r="AF15" s="1">
         <v>0</v>
       </c>
-      <c r="AG15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL15" s="1">
-        <v>0</v>
+      <c r="AG15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AO15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AP15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AR15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AS15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AT15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AU15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AV15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AW15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AX15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AY15" s="5">
+        <v>238</v>
+      </c>
+      <c r="AZ15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BA15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BB15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BC15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BD15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BE15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BF15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BG15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BH15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BI15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BJ15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BK15" s="5">
+        <v>238</v>
+      </c>
+      <c r="BL15" s="5">
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:64">
@@ -4068,101 +4075,101 @@
       <c r="AF16" s="1">
         <v>0</v>
       </c>
-      <c r="AG16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL16" s="1">
-        <v>0</v>
+      <c r="AG16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AO16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AR16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AS16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AT16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AU16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AV16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AW16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AX16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AY16" s="5">
+        <v>239</v>
+      </c>
+      <c r="AZ16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BA16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BB16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BC16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BD16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BE16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BF16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BG16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BH16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BI16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BJ16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BK16" s="5">
+        <v>239</v>
+      </c>
+      <c r="BL16" s="5">
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:64">
@@ -13479,7 +13486,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E20:BH20 A21:BL64 A1:BL19 BM1:XFD64 A65:XFD1048576">
+  <conditionalFormatting sqref="E20:BH20 A21:BL64 BM1:XFD64 A65:XFD1048576 A1:BL19">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>148</formula>
     </cfRule>
